--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T10:08:33+00:00</t>
+    <t>2026-02-09T11:30:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T11:30:19+00:00</t>
+    <t>2026-02-09T12:15:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:15:55+00:00</t>
+    <t>2026-02-09T12:28:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T12:28:26+00:00</t>
+    <t>2026-02-10T07:57:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T07:57:24+00:00</t>
+    <t>2026-02-10T12:50:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T12:50:25+00:00</t>
+    <t>2026-02-16T11:22:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-16T11:22:57+00:00</t>
+    <t>2026-02-17T08:49:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:49:13+00:00</t>
+    <t>2026-02-17T08:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T08:59:32+00:00</t>
+    <t>2026-02-17T12:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T12:24:33+00:00</t>
+    <t>2026-02-18T13:09:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:09:07+00:00</t>
+    <t>2026-02-18T13:35:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T13:35:35+00:00</t>
+    <t>2026-02-18T14:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-18T14:43:59+00:00</t>
+    <t>2026-02-19T08:12:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:12:22+00:00</t>
+    <t>2026-02-19T08:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T08:49:26+00:00</t>
+    <t>2026-02-19T09:19:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:19:55+00:00</t>
+    <t>2026-02-19T09:59:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T09:59:51+00:00</t>
+    <t>2026-02-19T10:15:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Stroke Procedure Not Done Reason Code System</t>
+    <t>Stroke Procedure Not Done Reasons CodeSystem</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:15:59+00:00</t>
+    <t>2026-02-19T10:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,16 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Codes specifying the reason principal for not performing a key stroke procedure (Thrombolysis, Thrombectomy).</t>
+    <t xml:space="preserve"> Local CodeSystem enumerating standardized reasons why a key stroke procedure (e.g., IV thrombolysis or mechanical thrombectomy) was **not performed**.
+**Primary use-case**
+- Populate `Procedure.statusReason` when `Procedure.status = not-done`.
+**Why it matters**
+- Captures the difference between:
+  - clinical ineligibility (contraindication),
+  - time-based ineligibility (outside window),
+  - operational constraints (unavailable),
+  - patient choice (refusal),
+  - care pathway differences (performed elsewhere / transfer).</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -144,10 +153,10 @@
     <t>time-window</t>
   </si>
   <si>
-    <t>Outside Therapeutic Window</t>
-  </si>
-  <si>
-    <t>Patient presented or evaluated outside the established time limit for the procedure.</t>
+    <t>Outside therapeutic window</t>
+  </si>
+  <si>
+    <t>The patient presented/evaluated outside the time window defined by protocol/guidelines for benefit.</t>
   </si>
   <si>
     <t>no-lvo</t>
@@ -156,67 +165,67 @@
     <t>No Large Vessel Occlusion (LVO)</t>
   </si>
   <si>
-    <t>An eligible large vessel occlusion for thrombectomy was not identified.</t>
+    <t>No eligible large vessel occlusion for thrombectomy was identified.</t>
   </si>
   <si>
     <t>contraindication</t>
   </si>
   <si>
-    <t>Contraindication Present</t>
-  </si>
-  <si>
-    <t>A medical contraindication to the procedure existed (e.g., bleeding risk).</t>
+    <t>Contraindication present</t>
+  </si>
+  <si>
+    <t>A medical contraindication existed (e.g., bleeding risk or other high-risk factor).</t>
   </si>
   <si>
     <t>patient-refusal</t>
   </si>
   <si>
-    <t>Patient/Family Refusal</t>
-  </si>
-  <si>
-    <t>The patient or their legal representative refused the procedure.</t>
+    <t>Patient/family refusal</t>
+  </si>
+  <si>
+    <t>The patient or legal representative declined the intervention after discussion.</t>
   </si>
   <si>
     <t>transfer</t>
   </si>
   <si>
-    <t>Transferred to Another Facility</t>
-  </si>
-  <si>
-    <t>The patient was transferred to another hospital for the procedure.</t>
+    <t>Transferred to another facility</t>
+  </si>
+  <si>
+    <t>The patient was transferred to a different facility for the intervention.</t>
   </si>
   <si>
     <t>unavailable</t>
   </si>
   <si>
-    <t>Procedure Unavailable</t>
-  </si>
-  <si>
-    <t>The procedure was not available at the facility (e.g., lack of equipment, staff).</t>
+    <t>Procedure unavailable</t>
+  </si>
+  <si>
+    <t>The facility could not provide the procedure (equipment, staffing, service availability).</t>
   </si>
   <si>
     <t>disability</t>
   </si>
   <si>
-    <t>Severe Preexisting Disability</t>
-  </si>
-  <si>
-    <t>Patient's baseline disability made benefit from the procedure unlikely.</t>
+    <t>Severe preexisting disability</t>
+  </si>
+  <si>
+    <t>Baseline disability made benefit unlikely per clinical judgement/protocol.</t>
   </si>
   <si>
     <t>mild-deficit</t>
   </si>
   <si>
-    <t>Mild Deficit</t>
-  </si>
-  <si>
-    <t>Patient's neurological deficit was too mild to warrant the procedure.</t>
+    <t>Mild deficit</t>
+  </si>
+  <si>
+    <t>Neurological deficit severity was judged too mild to justify risk/benefit.</t>
   </si>
   <si>
     <t>done-elsewhere</t>
   </si>
   <si>
-    <t>Performed Elsewhere</t>
+    <t>Performed elsewhere</t>
   </si>
   <si>
     <t>The procedure had already been performed at another facility prior to arrival/transfer.</t>
@@ -225,64 +234,64 @@
     <t>cost</t>
   </si>
   <si>
-    <t>Cost / No Insurance</t>
-  </si>
-  <si>
-    <t>Financial or coverage reasons prevented the procedure.</t>
+    <t>Cost / no insurance</t>
+  </si>
+  <si>
+    <t>Financial or coverage constraints prevented the procedure (use only where applicable).</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
-    <t>Reason Unknown</t>
-  </si>
-  <si>
-    <t>The reason was not documented or is unknown.</t>
+    <t>Reason unknown</t>
+  </si>
+  <si>
+    <t>Reason was not documented or is unknown.</t>
   </si>
   <si>
     <t>consent</t>
   </si>
   <si>
-    <t>Consent Not Obtained</t>
-  </si>
-  <si>
-    <t>Informed consent for the procedure was not obtained.</t>
+    <t>Consent not obtained</t>
+  </si>
+  <si>
+    <t>Informed consent required for the procedure was not obtained.</t>
   </si>
   <si>
     <t>only-mt</t>
   </si>
   <si>
-    <t>Only Mechanical Thrombectomy Considered</t>
-  </si>
-  <si>
-    <t>Only mechanical thrombectomy was considered, and thrombolysis was not performed.</t>
+    <t>Only mechanical thrombectomy considered</t>
+  </si>
+  <si>
+    <t>Only MT was considered; IV thrombolysis was not performed.</t>
+  </si>
+  <si>
+    <t>technically-not-possible</t>
+  </si>
+  <si>
+    <t>Technically not possible</t>
+  </si>
+  <si>
+    <t>Technical/anatomical factors prevented completion.</t>
+  </si>
+  <si>
+    <t>no-angiography</t>
+  </si>
+  <si>
+    <t>Angiography not performed</t>
+  </si>
+  <si>
+    <t>Required angiographic assessment was not performed.</t>
   </si>
   <si>
     <t>other</t>
   </si>
   <si>
-    <t>Other Reason</t>
-  </si>
-  <si>
-    <t>A reason not specifically defined.</t>
-  </si>
-  <si>
-    <t>technically-not-possible</t>
-  </si>
-  <si>
-    <t>Technically Not Possible</t>
-  </si>
-  <si>
-    <t>The procedure could not be performed due to technical or anatomical challenges.</t>
-  </si>
-  <si>
-    <t>no-angiography</t>
-  </si>
-  <si>
-    <t>Angiography Not Performed</t>
-  </si>
-  <si>
-    <t>Angiography to assess the situation was not performed.</t>
+    <t>Other reason</t>
+  </si>
+  <si>
+    <t>Other reason not listed. Prefer adding explanatory text in statusReason.text where possible.</t>
   </si>
 </sst>
 </file>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T10:59:57+00:00</t>
+    <t>2026-02-19T11:36:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T11:36:03+00:00</t>
+    <t>2026-02-19T12:37:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T12:37:09+00:00</t>
+    <t>2026-02-19T14:25:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:25:22+00:00</t>
+    <t>2026-02-19T14:52:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-19T14:52:32+00:00</t>
+    <t>2026-02-20T08:36:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:36:31+00:00</t>
+    <t>2026-02-20T08:43:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:43:58+00:00</t>
+    <t>2026-02-20T08:47:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T08:47:00+00:00</t>
+    <t>2026-02-20T09:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:39:34+00:00</t>
+    <t>2026-02-20T09:50:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T09:50:49+00:00</t>
+    <t>2026-02-20T10:05:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:05:07+00:00</t>
+    <t>2026-02-20T10:17:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:17:22+00:00</t>
+    <t>2026-02-20T10:31:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
+++ b/CodeSystem-stroke-proc-not-done-reason-cs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T10:31:35+00:00</t>
+    <t>2026-02-24T10:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
